--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Parker.Fall.111320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Parker.Fall.111320.xlsx_with_dialog_acts.xlsx
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1823,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3213,12 +3213,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3721,12 +3721,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3805,12 +3805,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3889,12 +3889,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3931,12 +3931,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4015,12 +4015,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4477,12 +4477,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4855,12 +4855,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4939,12 +4939,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5065,12 +5065,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5405,12 +5405,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5573,12 +5573,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5615,12 +5615,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5741,12 +5741,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6249,12 +6249,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8101,12 +8101,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8393,12 +8393,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9149,12 +9149,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9527,12 +9527,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9569,12 +9569,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9863,12 +9863,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10073,12 +10073,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10157,12 +10157,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10617,12 +10617,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10785,12 +10785,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11119,12 +11119,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11329,12 +11329,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11959,12 +11959,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12043,12 +12043,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12211,12 +12211,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
